--- a/src/info/aquis_censo_matricula_cols.xlsx
+++ b/src/info/aquis_censo_matricula_cols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.forli\PycharmProjects\curso-ciencia-dados\src\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C51660-7EB7-4F2C-85F0-B7D86FDD447F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CE0DD2-9043-4A1E-92BE-D1E067176EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="216">
   <si>
     <t>NU_ANO_CENSO</t>
   </si>
@@ -706,6 +706,9 @@
   </si>
   <si>
     <t>IN_NECESSIDADE_APOIO</t>
+  </si>
+  <si>
+    <t>ID_ESCOLA</t>
   </si>
 </sst>
 </file>
@@ -1245,9 +1248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D7738B-264F-484F-BE6D-FD3693129414}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2164,7 +2165,7 @@
         <v>110</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3187,7 +3188,7 @@
         <v>110</v>
       </c>
       <c r="C176" t="s">
-        <v>81</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/info/aquis_censo_matricula_cols.xlsx
+++ b/src/info/aquis_censo_matricula_cols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.forli\PycharmProjects\curso-ciencia-dados\src\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CE0DD2-9043-4A1E-92BE-D1E067176EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8121FA9E-F92B-4862-8059-5AAB7880D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="dtype" sheetId="14" r:id="rId1"/>
@@ -1248,7 +1248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D7738B-264F-484F-BE6D-FD3693129414}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="M109" sqref="M109"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2528,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,7 +3458,7 @@
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +4015,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +4229,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4786,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +4992,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5061,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5547,7 +5549,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5752,7 +5754,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C1:C1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5821,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6309,7 +6311,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -6515,7 +6517,7 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6576,7 +6578,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7050,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7379,7 +7381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3258CC0-ADA6-4507-AB64-D90060B3088F}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7439,7 +7443,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7911,7 +7915,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F3767-8325-42FC-B5CF-0C9355C3FEFD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8530,7 +8534,7 @@
         <v>178</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8695,8 +8699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2E8AAC-5EF7-4CB2-B05F-13B7AE3EE3D8}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,7 +9001,7 @@
         <v>178</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9170,8 +9174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191B03E2-B8C1-4175-BB0D-C27EF6341C13}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9480,7 +9484,7 @@
         <v>178</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9653,8 +9657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43982553-E6B4-42C3-8A07-21FF67F2AE83}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B58"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9963,7 +9967,7 @@
         <v>178</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10136,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D954F-5F4E-4C52-AD75-AEF6BFDC3A10}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B62"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10470,7 +10474,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10652,7 +10656,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11073,7 +11077,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -11263,7 +11267,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11332,7 +11336,7 @@
         <v>129</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11780,7 +11784,7 @@
         <v>178</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -11969,8 +11973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C519364D-6EE8-4BC1-8719-124AD6EA5239}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12039,7 +12043,7 @@
         <v>129</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12487,7 +12491,7 @@
         <v>178</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">

--- a/src/info/aquis_censo_matricula_cols.xlsx
+++ b/src/info/aquis_censo_matricula_cols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.forli\PycharmProjects\curso-ciencia-dados\src\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8121FA9E-F92B-4862-8059-5AAB7880D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AC956-3FE5-4158-938F-C4A21E6A243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="dtype" sheetId="14" r:id="rId1"/>
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="M109" sqref="M109"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2552,7 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11974,7 +11974,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B39"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/info/aquis_censo_matricula_cols.xlsx
+++ b/src/info/aquis_censo_matricula_cols.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.forli\PycharmProjects\curso-ciencia-dados\src\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CE0DD2-9043-4A1E-92BE-D1E067176EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AC956-3FE5-4158-938F-C4A21E6A243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48C7DDBA-442F-4222-8A07-8EDC411B5A7F}"/>
   </bookViews>
@@ -1248,7 +1248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D7738B-264F-484F-BE6D-FD3693129414}">
   <dimension ref="A1:C199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2528,7 +2530,7 @@
         <v>109</v>
       </c>
       <c r="C116" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,7 +2552,7 @@
         <v>125</v>
       </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,7 +3458,7 @@
   <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4013,7 +4015,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +4229,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4784,7 +4786,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +4992,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5061,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5547,7 +5549,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5752,7 +5754,7 @@
   <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C1:C1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5821,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6309,7 +6311,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -6515,7 +6517,7 @@
   <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6576,7 +6578,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7048,7 +7050,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -7379,7 +7381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3258CC0-ADA6-4507-AB64-D90060B3088F}">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7439,7 +7443,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7911,7 +7915,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8228,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F3767-8325-42FC-B5CF-0C9355C3FEFD}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8530,7 +8534,7 @@
         <v>178</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8695,8 +8699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2E8AAC-5EF7-4CB2-B05F-13B7AE3EE3D8}">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,7 +9001,7 @@
         <v>178</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9170,8 +9174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191B03E2-B8C1-4175-BB0D-C27EF6341C13}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9480,7 +9484,7 @@
         <v>178</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9653,8 +9657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43982553-E6B4-42C3-8A07-21FF67F2AE83}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B58"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9963,7 +9967,7 @@
         <v>178</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10136,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7D954F-5F4E-4C52-AD75-AEF6BFDC3A10}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B62"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10470,7 +10474,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10652,7 +10656,7 @@
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11073,7 +11077,7 @@
         <v>178</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -11263,7 +11267,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11332,7 +11336,7 @@
         <v>129</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -11780,7 +11784,7 @@
         <v>178</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -11969,8 +11973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C519364D-6EE8-4BC1-8719-124AD6EA5239}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12039,7 +12043,7 @@
         <v>129</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12487,7 +12491,7 @@
         <v>178</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
